--- a/times.xlsx
+++ b/times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="360" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -75,25 +75,34 @@
     <t xml:space="preserve">Red Border On Target </t>
   </si>
   <si>
-    <t>Final1</t>
-  </si>
-  <si>
-    <t>Final2</t>
-  </si>
-  <si>
     <t>ROUND 2</t>
   </si>
   <si>
     <t>ROUND 3</t>
   </si>
   <si>
-    <t>ROUND 4</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>ROUND 1</t>
+  </si>
+  <si>
+    <t>Final --&gt; Dynamic</t>
+  </si>
+  <si>
+    <t>Final2 -&gt; Static</t>
+  </si>
+  <si>
+    <t>Final -&gt; Static w competition, border etc</t>
+  </si>
+  <si>
+    <t>Discarded Ideas</t>
+  </si>
+  <si>
+    <t>Ideas moved to the next level,expanded upon</t>
+  </si>
+  <si>
+    <t>Final Idea</t>
+  </si>
+  <si>
+    <t>ROUND 4 (Final)</t>
   </si>
 </sst>
 </file>
@@ -133,12 +142,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,9 +186,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -499,18 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,267 +555,288 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" ht="43" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14.625</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.76</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.96</v>
+      </c>
+      <c r="C6" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.34</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="C3">
+      <c r="B12" s="3">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.64</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11.64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="C17" s="3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>14.625</v>
-      </c>
-      <c r="C4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.58</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>10.76</v>
-      </c>
-      <c r="C5">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.56</v>
+      </c>
+      <c r="C21" s="3">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>10.96</v>
-      </c>
-      <c r="C6">
+    <row r="22" spans="1:4" ht="37" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="C23" s="4">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D23" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10.9</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10.46</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>11.24</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>10.34</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>10.74</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>10.44</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>10.64</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>11.64</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>10.46</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>10.58</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>9.56</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
